--- a/Base de datos/AT2019.xlsx
+++ b/Base de datos/AT2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59399\Documents\Tesis\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59399\Documents\GitHub\DataMining_Accidentes_Transito_Canton_Loja\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2DE2A-E1DA-458A-BA9F-83F45E736500}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD87FC-2557-4D6A-805E-532498ECB5D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1152" windowWidth="16632" windowHeight="10680" xr2:uid="{5D5467A7-3554-447B-A6BC-97D00FDDAFE6}"/>
+    <workbookView xWindow="9432" yWindow="696" windowWidth="16632" windowHeight="10680" xr2:uid="{5D5467A7-3554-447B-A6BC-97D00FDDAFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3361,9 +3361,6 @@
     <t>Sagrario</t>
   </si>
   <si>
-    <t>Dirección</t>
-  </si>
-  <si>
     <t>Av. Emiliano Ortega y calle Lourdes</t>
   </si>
   <si>
@@ -3497,6 +3494,9 @@
   </si>
   <si>
     <t>LONGITUD</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
   </si>
 </sst>
 </file>
@@ -3994,8 +3994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D999AA3-D4B6-4174-A8AB-74CB787F3A37}">
   <dimension ref="A1:M584"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4017,16 +4017,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1156</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>1111</v>
+        <v>1156</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1107</v>
@@ -4666,7 +4666,7 @@
         <v>33</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>1108</v>
@@ -4704,7 +4704,7 @@
         <v>33</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>1108</v>
@@ -4742,7 +4742,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>1108</v>
@@ -4818,7 +4818,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>1108</v>
@@ -4894,7 +4894,7 @@
         <v>27</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>1108</v>
@@ -5158,7 +5158,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>1108</v>
@@ -5272,7 +5272,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>1108</v>
@@ -5348,7 +5348,7 @@
         <v>33</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>1108</v>
@@ -5576,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>1108</v>
@@ -6400,7 +6400,7 @@
         <v>33</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>1108</v>
@@ -6854,7 +6854,7 @@
         <v>27</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>1108</v>
@@ -7196,7 +7196,7 @@
         <v>8</v>
       </c>
       <c r="G85" s="25" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>1108</v>
@@ -7384,7 +7384,7 @@
         <v>43</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>1108</v>
@@ -9122,7 +9122,7 @@
         <v>93</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>1108</v>
@@ -9236,7 +9236,7 @@
         <v>33</v>
       </c>
       <c r="G139" s="25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>1108</v>
@@ -9614,7 +9614,7 @@
         <v>43</v>
       </c>
       <c r="G149" s="27" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>1108</v>
@@ -11063,7 +11063,7 @@
         <v>21</v>
       </c>
       <c r="G187" s="27" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>1108</v>
@@ -11375,7 +11375,7 @@
         <v>21</v>
       </c>
       <c r="G195" s="27" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>1108</v>
@@ -11531,7 +11531,7 @@
         <v>93</v>
       </c>
       <c r="G199" s="27" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>1108</v>
@@ -11648,7 +11648,7 @@
         <v>8</v>
       </c>
       <c r="G202" s="27" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>1108</v>
@@ -12381,7 +12381,7 @@
         <v>33</v>
       </c>
       <c r="G221" s="27" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>1108</v>
@@ -12884,7 +12884,7 @@
         <v>8</v>
       </c>
       <c r="G234" s="27" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>1108</v>
@@ -13153,7 +13153,7 @@
         <v>39</v>
       </c>
       <c r="G241" s="27" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>1108</v>
@@ -13617,7 +13617,7 @@
         <v>21</v>
       </c>
       <c r="G253" s="27" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H253" s="4" t="s">
         <v>1108</v>
@@ -14124,7 +14124,7 @@
         <v>8</v>
       </c>
       <c r="G266" s="27" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H266" s="4" t="s">
         <v>1108</v>
@@ -15038,7 +15038,7 @@
         <v>39</v>
       </c>
       <c r="G290" s="29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H290" s="4" t="s">
         <v>1108</v>
@@ -16094,7 +16094,7 @@
         <v>849</v>
       </c>
       <c r="G316" s="25" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H316" s="4" t="s">
         <v>1108</v>
@@ -16379,7 +16379,7 @@
         <v>8</v>
       </c>
       <c r="G323" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H323" s="4" t="s">
         <v>1108</v>
@@ -16420,7 +16420,7 @@
         <v>67</v>
       </c>
       <c r="G324" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>1108</v>
@@ -17113,7 +17113,7 @@
         <v>27</v>
       </c>
       <c r="G341" s="25" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H341" s="4" t="s">
         <v>1108</v>
@@ -18620,7 +18620,7 @@
         <v>39</v>
       </c>
       <c r="G378" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H378" s="4" t="s">
         <v>1108</v>
@@ -20935,7 +20935,7 @@
         <v>27</v>
       </c>
       <c r="G435" s="25" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H435" s="4" t="s">
         <v>1108</v>
@@ -21384,7 +21384,7 @@
         <v>33</v>
       </c>
       <c r="G446" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H446" s="4" t="s">
         <v>1108</v>
@@ -22487,7 +22487,7 @@
         <v>33</v>
       </c>
       <c r="G473" s="25" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H473" s="4" t="s">
         <v>1108</v>
@@ -22938,7 +22938,7 @@
         <v>8</v>
       </c>
       <c r="G484" s="25" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H484" s="4" t="s">
         <v>1108</v>
@@ -23143,7 +23143,7 @@
         <v>39</v>
       </c>
       <c r="G489" s="25" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H489" s="4" t="s">
         <v>1108</v>
@@ -23348,7 +23348,7 @@
         <v>33</v>
       </c>
       <c r="G494" s="25" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H494" s="4" t="s">
         <v>1108</v>
@@ -23590,7 +23590,7 @@
         <v>8</v>
       </c>
       <c r="G500" s="25" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H500" s="4" t="s">
         <v>1108</v>
@@ -23875,7 +23875,7 @@
         <v>33</v>
       </c>
       <c r="G507" s="25" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H507" s="4" t="s">
         <v>1108</v>
@@ -23957,7 +23957,7 @@
         <v>21</v>
       </c>
       <c r="G509" s="25" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H509" s="4" t="s">
         <v>1108</v>
@@ -24609,7 +24609,7 @@
         <v>27</v>
       </c>
       <c r="G525" s="25" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H525" s="4" t="s">
         <v>1108</v>
@@ -25382,7 +25382,7 @@
         <v>43</v>
       </c>
       <c r="G544" s="25" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H544" s="4" t="s">
         <v>1108</v>
@@ -25423,7 +25423,7 @@
         <v>33</v>
       </c>
       <c r="G545" s="25" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H545" s="4" t="s">
         <v>1108</v>
@@ -25628,7 +25628,7 @@
         <v>21</v>
       </c>
       <c r="G550" s="25" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H550" s="4" t="s">
         <v>1108</v>
@@ -26446,7 +26446,7 @@
         <v>27</v>
       </c>
       <c r="G570" s="25" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H570" s="4" t="s">
         <v>1108</v>
